--- a/Project-S/Assets/Excel/ExcelFile/itemTable.xlsx
+++ b/Project-S/Assets/Excel/ExcelFile/itemTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Project-S\Project-S\Assets\Excel\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork\Project-S\Project-S\Assets\Excel\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22EF9D7-AEF2-4E57-AEF2-2841C0A68B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C03915-6B05-4CE6-AD27-A64634C1058F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30735" yWindow="1845" windowWidth="24750" windowHeight="11835" xr2:uid="{146B6AF9-5316-47AC-88BA-50AA66486CA4}"/>
+    <workbookView xWindow="2385" yWindow="2700" windowWidth="28800" windowHeight="15435" xr2:uid="{146B6AF9-5316-47AC-88BA-50AA66486CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -39,31 +39,30 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>ItemType</t>
-  </si>
-  <si>
-    <t>CraftMaterial</t>
-  </si>
-  <si>
-    <t>MaterialValue</t>
-  </si>
-  <si>
-    <t>BuyGold</t>
-  </si>
-  <si>
-    <t>SalePossible</t>
-  </si>
-  <si>
-    <t>SaleGold</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>itemType</t>
+  </si>
+  <si>
+    <t>craftMaterial</t>
+  </si>
+  <si>
+    <t>materialValue</t>
+  </si>
+  <si>
+    <t>buyGold</t>
+  </si>
+  <si>
+    <t>salePossible</t>
+  </si>
+  <si>
+    <t>saleGold</t>
   </si>
 </sst>
 </file>
@@ -427,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A90F246-DB51-4C67-8552-529D88DABCB3}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,32 +470,89 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1000000</v>
+        <v>1100000</v>
+      </c>
+      <c r="B2">
+        <v>101001</v>
+      </c>
+      <c r="C2">
+        <v>111001</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1000001</v>
+        <v>1100001</v>
+      </c>
+      <c r="B3">
+        <v>101002</v>
+      </c>
+      <c r="C3">
+        <v>111002</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1100001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1101000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1101001</v>
+        <v>1020000</v>
+      </c>
+      <c r="B4">
+        <v>100001</v>
+      </c>
+      <c r="C4">
+        <v>100002</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Project-S/Assets/Excel/ExcelFile/itemTable.xlsx
+++ b/Project-S/Assets/Excel/ExcelFile/itemTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork\Project-S\Project-S\Assets\Excel\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Project-S\Project-S\Assets\Excel\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C03915-6B05-4CE6-AD27-A64634C1058F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4034C4BC-52A5-4E35-9B77-2127DC13051F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2700" windowWidth="28800" windowHeight="15435" xr2:uid="{146B6AF9-5316-47AC-88BA-50AA66486CA4}"/>
+    <workbookView xWindow="31125" yWindow="2580" windowWidth="19545" windowHeight="11835" xr2:uid="{146B6AF9-5316-47AC-88BA-50AA66486CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>index</t>
   </si>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>saleGold</t>
+  </si>
+  <si>
+    <t>resourceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -108,9 +116,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,20 +437,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A90F246-DB51-4C67-8552-529D88DABCB3}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,43 +459,43 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1100000</v>
       </c>
       <c r="B2">
         <v>101001</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>111001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>-1</v>
-      </c>
       <c r="F2">
         <v>-1</v>
       </c>
@@ -491,28 +503,28 @@
         <v>-1</v>
       </c>
       <c r="H2">
+        <v>-1</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1100001</v>
       </c>
       <c r="B3">
         <v>101002</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>111002</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
       <c r="F3">
         <v>-1</v>
       </c>
@@ -520,28 +532,31 @@
         <v>-1</v>
       </c>
       <c r="H3">
+        <v>-1</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1020000</v>
       </c>
       <c r="B4">
         <v>100001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>100002</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
       <c r="F4">
         <v>-1</v>
       </c>
@@ -549,9 +564,12 @@
         <v>-1</v>
       </c>
       <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>500</v>
       </c>
     </row>
